--- a/apps/test/data_migration/ModeleExportClassification.xlsx
+++ b/apps/test/data_migration/ModeleExportClassification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="955" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="940" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -204,7 +204,7 @@
   <dimension ref="B4:I21"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="I7" activeCellId="0" pane="topLeft" sqref="I7"/>
+      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E:E"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.05"/>
@@ -213,7 +213,9 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9948979591837"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="5" style="0" width="10.7295918367347"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4540816326531"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.7295918367347"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.4183673469388"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7295918367347"/>
   </cols>
@@ -278,7 +280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="7">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="7">
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
@@ -594,7 +596,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -620,7 +622,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E:E A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/apps/test/data_migration/ModeleExportClassification.xlsx
+++ b/apps/test/data_migration/ModeleExportClassification.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="940" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="753" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="139">
   <si>
     <t>Propriétaire</t>
   </si>
@@ -104,6 +104,336 @@
   </si>
   <si>
     <t>Traditions d'asie</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>Id_classification</t>
+  </si>
+  <si>
+    <t>Bofrost /</t>
+  </si>
+  <si>
+    <t>Bofrost</t>
+  </si>
+  <si>
+    <t>Plats Cuisinés</t>
+  </si>
+  <si>
+    <t>ED / Carrefour(Groupe)</t>
+  </si>
+  <si>
+    <t>DIA</t>
+  </si>
+  <si>
+    <t>Frais</t>
+  </si>
+  <si>
+    <t>Hard Discount</t>
+  </si>
+  <si>
+    <t>Carrefour / ED</t>
+  </si>
+  <si>
+    <t>Carrefour</t>
+  </si>
+  <si>
+    <t>Soupe</t>
+  </si>
+  <si>
+    <t>Sauces</t>
+  </si>
+  <si>
+    <t>Champion / Carrefour</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Grand Jury</t>
+  </si>
+  <si>
+    <t>Netto / Intermarché(Groupe)</t>
+  </si>
+  <si>
+    <t>Contrées Gourmandes</t>
+  </si>
+  <si>
+    <t>NETTO</t>
+  </si>
+  <si>
+    <t>Intermarché / Netto</t>
+  </si>
+  <si>
+    <t>Claude Leger / Délice du monde</t>
+  </si>
+  <si>
+    <t>Thématique</t>
+  </si>
+  <si>
+    <t>Agis / LDC</t>
+  </si>
+  <si>
+    <t>Traiteur</t>
+  </si>
+  <si>
+    <t>GMS</t>
+  </si>
+  <si>
+    <t>Frais Embal</t>
+  </si>
+  <si>
+    <t>Ethnique</t>
+  </si>
+  <si>
+    <t>QTT</t>
+  </si>
+  <si>
+    <t>Viandes Cuites</t>
+  </si>
+  <si>
+    <t>Entrées</t>
+  </si>
+  <si>
+    <t>Pizza / QTT</t>
+  </si>
+  <si>
+    <t>Entrées Exo</t>
+  </si>
+  <si>
+    <t>Crêpes Galettes</t>
+  </si>
+  <si>
+    <t>Bernard Loiseau</t>
+  </si>
+  <si>
+    <t>Destockeur</t>
+  </si>
+  <si>
+    <t>Tradition d'Asie</t>
+  </si>
+  <si>
+    <t>ILYA</t>
+  </si>
+  <si>
+    <t>Companeros</t>
+  </si>
+  <si>
+    <t>Tous</t>
+  </si>
+  <si>
+    <t>La CUP</t>
+  </si>
+  <si>
+    <t>+ de fraîcheur, + de goût</t>
+  </si>
+  <si>
+    <t>EPC / Agis</t>
+  </si>
+  <si>
+    <t>Entracte</t>
+  </si>
+  <si>
+    <t>Hors Rayon</t>
+  </si>
+  <si>
+    <t>IKEA</t>
+  </si>
+  <si>
+    <t>Marie / EPC</t>
+  </si>
+  <si>
+    <t>Sous Traitance</t>
+  </si>
+  <si>
+    <t>Marie</t>
+  </si>
+  <si>
+    <t>Weight Watcher</t>
+  </si>
+  <si>
+    <t>DLG / Marie</t>
+  </si>
+  <si>
+    <t>SDV</t>
+  </si>
+  <si>
+    <t>Norma / DLG</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
+    <t>Thiriet / Norma</t>
+  </si>
+  <si>
+    <t>Thiriet</t>
+  </si>
+  <si>
+    <t>Accord / Thiriet</t>
+  </si>
+  <si>
+    <t>VSR / Accord</t>
+  </si>
+  <si>
+    <t>SAWI</t>
+  </si>
+  <si>
+    <t>Sec</t>
+  </si>
+  <si>
+    <t>AHOLD</t>
+  </si>
+  <si>
+    <t>Auchan / Auchan (Groupe)</t>
+  </si>
+  <si>
+    <t>Auchan</t>
+  </si>
+  <si>
+    <t>Pouce</t>
+  </si>
+  <si>
+    <t>Mmm!</t>
+  </si>
+  <si>
+    <t>Self Discount</t>
+  </si>
+  <si>
+    <t>Cora / Provera</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>Match / Cora</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Francap / Match</t>
+  </si>
+  <si>
+    <t>Belle France</t>
+  </si>
+  <si>
+    <t>SAROS / Francap</t>
+  </si>
+  <si>
+    <t>SAROS</t>
+  </si>
+  <si>
+    <t>Système U / SAROS</t>
+  </si>
+  <si>
+    <t>Système U</t>
+  </si>
+  <si>
+    <t>Casino / EMC DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>Casino</t>
+  </si>
+  <si>
+    <t>Monoprix / Casino</t>
+  </si>
+  <si>
+    <t>Monoprix</t>
+  </si>
+  <si>
+    <t>Leader Price / Monoprix</t>
+  </si>
+  <si>
+    <t>Leader Price</t>
+  </si>
+  <si>
+    <t>PICARD / Leader Price</t>
+  </si>
+  <si>
+    <t>PICARD</t>
+  </si>
+  <si>
+    <t>Leclerc / Leclerc</t>
+  </si>
+  <si>
+    <t>Plats Cuisiné</t>
+  </si>
+  <si>
+    <t>Produits Frits</t>
+  </si>
+  <si>
+    <t>Leclerc</t>
+  </si>
+  <si>
+    <t>LA FERME DU FROID / Leclerc</t>
+  </si>
+  <si>
+    <t>LA FERME DU FROID</t>
+  </si>
+  <si>
+    <t>Toupargel / LA FERME DU FROID</t>
+  </si>
+  <si>
+    <t>Toupargel</t>
+  </si>
+  <si>
+    <t>Mamma mia / Argel</t>
+  </si>
+  <si>
+    <t>Mamma Mia</t>
+  </si>
+  <si>
+    <t>Pâtes cuisinées</t>
+  </si>
+  <si>
+    <t>EURIAL / Mamma mia</t>
+  </si>
+  <si>
+    <t>EURIAL</t>
+  </si>
+  <si>
+    <t>DISTRIBORG / EURIAL</t>
+  </si>
+  <si>
+    <t>DISTRIBORG</t>
+  </si>
+  <si>
+    <t>HEMA / DISTRIBORG</t>
+  </si>
+  <si>
+    <t>HEMA</t>
+  </si>
+  <si>
+    <t>SANTA MARIA / HEMA</t>
+  </si>
+  <si>
+    <t>SANTA MARIA</t>
+  </si>
+  <si>
+    <t>ALDI / SANTA MARIA</t>
+  </si>
+  <si>
+    <t>ALDI</t>
+  </si>
+  <si>
+    <t>LIDL / ALDI</t>
+  </si>
+  <si>
+    <t>LIDL</t>
+  </si>
+  <si>
+    <t>EISMANN / LIDL</t>
+  </si>
+  <si>
+    <t>EISMANN</t>
+  </si>
+  <si>
+    <t>kEPACK / EISMANN</t>
+  </si>
+  <si>
+    <t>KEPACK</t>
   </si>
 </sst>
 </file>
@@ -179,8 +509,12 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -201,23 +535,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B4:I21"/>
+  <dimension ref="B4:J141"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="E1" activeCellId="0" pane="topLeft" sqref="E:E"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="B97" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
+      <selection activeCell="D52" activeCellId="0" pane="topLeft" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.05"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.9948979591837"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="15.1275510204082"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.765306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0357142857143"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="14.7244897959184"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="12.5714285714286"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.4540816326531"/>
-    <col collapsed="false" hidden="false" max="8" min="7" style="0" width="10.7295918367347"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.515306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="10.7295918367347"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="0" width="11.4183673469388"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="10.7295918367347"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="10.7295918367347"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="28.0357142857143"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="14.7244897959184"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="12.1683673469388"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="13.515306122449"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="10.7295918367347"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="4">
@@ -575,6 +915,3165 @@
       </c>
       <c r="E21" s="0" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="25">
+      <c r="B25" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="26">
+      <c r="B26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="27">
+      <c r="B27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1" t="n">
+        <v>273</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="28">
+      <c r="B28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1" t="n">
+        <v>274</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="29">
+      <c r="B29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1" t="n">
+        <v>277</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="30">
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1" t="n">
+        <v>470</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="31">
+      <c r="B31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1" t="n">
+        <v>498</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="32">
+      <c r="B32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1" t="n">
+        <v>275</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="33">
+      <c r="B33" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1" t="n">
+        <v>545</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="34">
+      <c r="B34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1" t="n">
+        <v>307</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="35">
+      <c r="B35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1" t="n">
+        <v>313</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="36">
+      <c r="B36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1" t="n">
+        <v>319</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="37">
+      <c r="B37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1" t="n">
+        <v>276</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="38">
+      <c r="B38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1" t="n">
+        <v>434</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="39">
+      <c r="B39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1" t="n">
+        <v>477</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="40">
+      <c r="B40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1" t="n">
+        <v>482</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="41">
+      <c r="B41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1" t="n">
+        <v>278</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="42">
+      <c r="B42" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1" t="n">
+        <v>419</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="43">
+      <c r="B43" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1" t="n">
+        <v>279</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="44">
+      <c r="B44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1" t="n">
+        <v>362</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="45">
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1" t="n">
+        <v>428</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="46">
+      <c r="B46" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1" t="n">
+        <v>280</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="47">
+      <c r="B47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1" t="n">
+        <v>392</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="48">
+      <c r="B48" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1" t="n">
+        <v>281</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="49">
+      <c r="B49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1" t="n">
+        <v>282</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="50">
+      <c r="B50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1" t="n">
+        <v>716</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="51">
+      <c r="B51" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1" t="n">
+        <v>356</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="52">
+      <c r="B52" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1" t="n">
+        <v>680</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="53">
+      <c r="B53" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="54">
+      <c r="B54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1" t="n">
+        <v>686</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="55">
+      <c r="B55" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1" t="n">
+        <v>694</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="56">
+      <c r="B56" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1" t="n">
+        <v>699</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="57">
+      <c r="B57" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1" t="n">
+        <v>703</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="58">
+      <c r="B58" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1" t="n">
+        <v>708</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="59">
+      <c r="B59" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1" t="n">
+        <v>712</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="60">
+      <c r="B60" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1" t="n">
+        <v>721</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="61">
+      <c r="B61" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1" t="n">
+        <v>725</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="62">
+      <c r="B62" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1" t="n">
+        <v>730</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="63">
+      <c r="B63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1" t="n">
+        <v>734</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="64">
+      <c r="B64" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1" t="n">
+        <v>283</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="65">
+      <c r="B65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1" t="n">
+        <v>58</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="66">
+      <c r="B66" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1" t="n">
+        <v>284</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="67">
+      <c r="B67" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1" t="n">
+        <v>65</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="68">
+      <c r="B68" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1" t="n">
+        <v>287</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="69">
+      <c r="B69" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1" t="n">
+        <v>417</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="70">
+      <c r="B70" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1" t="n">
+        <v>290</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="71">
+      <c r="B71" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="72">
+      <c r="B72" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="73">
+      <c r="B73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1" t="n">
+        <v>291</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="74">
+      <c r="B74" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1" t="n">
+        <v>436</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="75">
+      <c r="B75" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1" t="n">
+        <v>292</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="76">
+      <c r="B76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1" t="n">
+        <v>437</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="77">
+      <c r="B77" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1" t="n">
+        <v>139</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="78">
+      <c r="B78" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1" t="n">
+        <v>286</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="79">
+      <c r="B79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1" t="n">
+        <v>285</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="80">
+      <c r="B80" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="81">
+      <c r="B81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="82">
+      <c r="B82" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1" t="n">
+        <v>551</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="83">
+      <c r="B83" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1" t="n">
+        <v>561</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="84">
+      <c r="B84" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1" t="n">
+        <v>752</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="85">
+      <c r="B85" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1" t="n">
+        <v>568</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="86">
+      <c r="B86" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1" t="n">
+        <v>635</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="87">
+      <c r="B87" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1" t="n">
+        <v>639</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="88">
+      <c r="B88" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1" t="n">
+        <v>651</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="89">
+      <c r="B89" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1" t="n">
+        <v>649</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="90">
+      <c r="B90" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="91">
+      <c r="B91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="92">
+      <c r="B92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="93">
+      <c r="B93" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1" t="n">
+        <v>666</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="94">
+      <c r="B94" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1" t="n">
+        <v>297</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="95">
+      <c r="B95" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1" t="n">
+        <v>298</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="96">
+      <c r="B96" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1" t="n">
+        <v>322</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="97">
+      <c r="B97" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="98">
+      <c r="B98" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1" t="n">
+        <v>329</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="99">
+      <c r="B99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1" t="n">
+        <v>331</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="100">
+      <c r="B100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1" t="n">
+        <v>269</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="101">
+      <c r="B101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1" t="n">
+        <v>270</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="102">
+      <c r="B102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1" t="n">
+        <v>271</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="103">
+      <c r="B103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1" t="n">
+        <v>272</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="104">
+      <c r="B104" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1" t="n">
+        <v>344</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="105">
+      <c r="B105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H105" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I105" s="1"/>
+      <c r="J105" s="1" t="n">
+        <v>389</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="106">
+      <c r="B106" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I106" s="1"/>
+      <c r="J106" s="1" t="n">
+        <v>758</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="107">
+      <c r="B107" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" s="1" t="n">
+        <v>293</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="108">
+      <c r="B108" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I108" s="1"/>
+      <c r="J108" s="1" t="n">
+        <v>294</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="109">
+      <c r="B109" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" s="1"/>
+      <c r="J109" s="1" t="n">
+        <v>295</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="110">
+      <c r="B110" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I110" s="1"/>
+      <c r="J110" s="1" t="n">
+        <v>296</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="111">
+      <c r="B111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1" t="n">
+        <v>455</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="112">
+      <c r="B112" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H112" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1" t="n">
+        <v>460</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="113">
+      <c r="B113" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1" t="n">
+        <v>338</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="114">
+      <c r="B114" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1" t="n">
+        <v>351</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="115">
+      <c r="B115" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1" t="n">
+        <v>506</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="116">
+      <c r="B116" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H116" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1" t="n">
+        <v>369</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="117">
+      <c r="B117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H117" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1" t="n">
+        <v>377</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="118">
+      <c r="B118" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H118" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="119">
+      <c r="B119" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G119" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H119" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1" t="n">
+        <v>384</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="120">
+      <c r="B120" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1" t="n">
+        <v>573</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="121">
+      <c r="B121" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H121" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1" t="n">
+        <v>513</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="122">
+      <c r="B122" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="123">
+      <c r="B123" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1" t="n">
+        <v>399</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="124">
+      <c r="B124" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H124" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1" t="n">
+        <v>518</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="125">
+      <c r="B125" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1" t="n">
+        <v>468</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="126">
+      <c r="B126" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1" t="n">
+        <v>633</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="127">
+      <c r="B127" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1" t="n">
+        <v>660</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="128">
+      <c r="B128" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I128" s="1"/>
+      <c r="J128" s="1" t="n">
+        <v>413</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="129">
+      <c r="B129" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H129" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I129" s="1"/>
+      <c r="J129" s="1" t="n">
+        <v>489</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="130">
+      <c r="B130" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I130" s="1"/>
+      <c r="J130" s="1" t="n">
+        <v>595</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="131">
+      <c r="B131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I131" s="1"/>
+      <c r="J131" s="1" t="n">
+        <v>526</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="132">
+      <c r="B132" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I132" s="1"/>
+      <c r="J132" s="1" t="n">
+        <v>665</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="133">
+      <c r="B133" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I133" s="1"/>
+      <c r="J133" s="1" t="n">
+        <v>533</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="134">
+      <c r="B134" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I134" s="1"/>
+      <c r="J134" s="1" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="135">
+      <c r="B135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G135" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H135" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I135" s="1"/>
+      <c r="J135" s="1" t="n">
+        <v>580</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="136">
+      <c r="B136" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I136" s="1"/>
+      <c r="J136" s="1" t="n">
+        <v>590</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="137">
+      <c r="B137" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I137" s="1"/>
+      <c r="J137" s="1" t="n">
+        <v>602</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="138">
+      <c r="B138" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I138" s="1"/>
+      <c r="J138" s="1" t="n">
+        <v>622</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="139">
+      <c r="B139" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H139" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I139" s="1"/>
+      <c r="J139" s="1" t="n">
+        <v>646</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.05" outlineLevel="0" r="140">
+      <c r="B140" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G140" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H140" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I140" s="1"/>
+      <c r="J140" s="1" t="n">
+        <v>674</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="141">
+      <c r="B141" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I141" s="1"/>
+      <c r="J141" s="1" t="n">
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -596,7 +4095,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E:E A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -622,7 +4121,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="1" pane="topLeft" sqref="E:E A1"/>
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
